--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1401</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1375</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2774</x:v>
+        <x:v>2779</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1672</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1516</x:v>
+        <x:v>1518</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3188</x:v>
+        <x:v>3192</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1431</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>2094</x:v>
@@ -480,10 +480,10 @@
         <x:v>1084</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1333</x:v>
+        <x:v>1335</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2417</x:v>
+        <x:v>2419</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3249</x:v>
+        <x:v>3257</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2010</x:v>
+        <x:v>2013</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5259</x:v>
+        <x:v>5270</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1267</x:v>
+        <x:v>1266</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2586</x:v>
+        <x:v>2588</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>265</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>548</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1404</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1375</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2779</x:v>
+        <x:v>2783</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1678</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1518</x:v>
+        <x:v>1520</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3192</x:v>
+        <x:v>3198</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1430</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>664</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2094</x:v>
+        <x:v>2097</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1335</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2419</x:v>
+        <x:v>2423</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3257</x:v>
+        <x:v>3263</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2013</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5270</x:v>
+        <x:v>5278</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1322</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1266</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2588</x:v>
+        <x:v>2593</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>576</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1289</x:v>
+        <x:v>1291</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3263</x:v>
+        <x:v>3266</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>2015</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5278</x:v>
+        <x:v>5281</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>735</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1423</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1407</x:v>
+        <x:v>1408</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1376</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2783</x:v>
+        <x:v>2791</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1678</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1520</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3198</x:v>
+        <x:v>3208</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1337</x:v>
+        <x:v>1338</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2423</x:v>
+        <x:v>2425</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1326</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1267</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2593</x:v>
+        <x:v>2603</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1408</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1383</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2791</x:v>
+        <x:v>2810</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1528</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3208</x:v>
+        <x:v>3220</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -466,10 +466,10 @@
         <x:v>1433</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2097</x:v>
+        <x:v>2098</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1087</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2425</x:v>
+        <x:v>2428</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3266</x:v>
+        <x:v>3304</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2015</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5281</x:v>
+        <x:v>5322</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1423</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>526</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1331</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1272</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2603</x:v>
+        <x:v>2613</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1291</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1425</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1385</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2810</x:v>
+        <x:v>2815</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>1703</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1528</x:v>
+        <x:v>1529</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3220</x:v>
+        <x:v>3232</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1433</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2098</x:v>
+        <x:v>2100</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3304</x:v>
+        <x:v>3312</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2018</x:v>
+        <x:v>2019</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5322</x:v>
+        <x:v>5331</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>459</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>993</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1334</x:v>
+        <x:v>1335</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2613</x:v>
+        <x:v>2615</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1303</x:v>
+        <x:v>1305</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1429</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1386</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2815</x:v>
+        <x:v>2860</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1703</x:v>
+        <x:v>1704</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1529</x:v>
+        <x:v>1532</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3232</x:v>
+        <x:v>3236</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1434</x:v>
+        <x:v>1435</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>666</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2100</x:v>
+        <x:v>2101</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1088</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>1340</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2428</x:v>
+        <x:v>2430</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>3312</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2019</x:v>
+        <x:v>2021</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5331</x:v>
+        <x:v>5333</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>459</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>994</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>270</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -438,10 +438,10 @@
         <x:v>1472</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1388</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2860</x:v>
+        <x:v>2858</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1532</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3236</x:v>
+        <x:v>3244</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1435</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>666</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2101</x:v>
+        <x:v>2105</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>1340</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2430</x:v>
+        <x:v>2431</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3312</x:v>
+        <x:v>3313</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5333</x:v>
+        <x:v>5334</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>994</x:v>
+        <x:v>996</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1335</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1280</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2615</x:v>
+        <x:v>2623</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -438,10 +438,10 @@
         <x:v>1472</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1386</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2858</x:v>
+        <x:v>2859</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1719</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1534</x:v>
+        <x:v>1545</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3244</x:v>
+        <x:v>3264</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1340</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2431</x:v>
+        <x:v>2434</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1427</x:v>
+        <x:v>1438</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1472</x:v>
+        <x:v>1874</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1387</x:v>
+        <x:v>1760</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2859</x:v>
+        <x:v>3634</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>2154</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1545</x:v>
+        <x:v>2057</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3264</x:v>
+        <x:v>4211</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1439</x:v>
+        <x:v>1974</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2105</x:v>
+        <x:v>2884</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1435</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1817</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2434</x:v>
+        <x:v>3252</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>3313</x:v>
+        <x:v>4346</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2021</x:v>
+        <x:v>2727</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>5334</x:v>
+        <x:v>7073</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1438</x:v>
+        <x:v>1998</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>1359</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1339</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1709</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>2623</x:v>
+        <x:v>3427</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1305</x:v>
+        <x:v>1695</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1874</x:v>
+        <x:v>1884</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1760</x:v>
+        <x:v>1764</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3634</x:v>
+        <x:v>3648</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2154</x:v>
+        <x:v>2163</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2057</x:v>
+        <x:v>2066</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4211</x:v>
+        <x:v>4229</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1974</x:v>
+        <x:v>1977</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>910</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2884</x:v>
+        <x:v>2888</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1435</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1817</x:v>
+        <x:v>1820</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3252</x:v>
+        <x:v>3261</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4346</x:v>
+        <x:v>4372</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2727</x:v>
+        <x:v>2743</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7073</x:v>
+        <x:v>7115</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1069</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1998</x:v>
+        <x:v>2021</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>731</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1359</x:v>
+        <x:v>1360</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1709</x:v>
+        <x:v>1713</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3427</x:v>
+        <x:v>3441</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>749</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1695</x:v>
+        <x:v>1702</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1884</x:v>
+        <x:v>1887</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>1764</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3648</x:v>
+        <x:v>3651</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2163</x:v>
+        <x:v>2161</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2066</x:v>
+        <x:v>2065</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4229</x:v>
+        <x:v>4226</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>1441</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1820</x:v>
+        <x:v>1821</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3261</x:v>
+        <x:v>3262</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4372</x:v>
+        <x:v>4375</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2743</x:v>
+        <x:v>2750</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7115</x:v>
+        <x:v>7125</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>946</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1075</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2021</x:v>
+        <x:v>2022</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1728</x:v>
+        <x:v>1729</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1713</x:v>
+        <x:v>1714</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3441</x:v>
+        <x:v>3443</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>702</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1887</x:v>
+        <x:v>1891</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1764</x:v>
+        <x:v>1767</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3651</x:v>
+        <x:v>3658</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2161</x:v>
+        <x:v>2162</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2065</x:v>
+        <x:v>2069</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4226</x:v>
+        <x:v>4231</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1977</x:v>
+        <x:v>1978</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>911</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2888</x:v>
+        <x:v>2890</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4375</x:v>
+        <x:v>4388</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2750</x:v>
+        <x:v>2752</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7125</x:v>
+        <x:v>7140</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>731</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1360</x:v>
+        <x:v>1361</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1729</x:v>
+        <x:v>1730</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1714</x:v>
+        <x:v>1717</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3443</x:v>
+        <x:v>3447</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>347</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1891</x:v>
+        <x:v>1896</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1767</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3658</x:v>
+        <x:v>3664</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2162</x:v>
+        <x:v>2181</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2071</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4231</x:v>
+        <x:v>4252</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1978</x:v>
+        <x:v>1980</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>912</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2890</x:v>
+        <x:v>2892</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1441</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1821</x:v>
+        <x:v>1824</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3262</x:v>
+        <x:v>3269</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4388</x:v>
+        <x:v>4416</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2752</x:v>
+        <x:v>2759</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7140</x:v>
+        <x:v>7175</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>1076</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2022</x:v>
+        <x:v>2025</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1361</x:v>
+        <x:v>1363</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1730</x:v>
+        <x:v>1735</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1717</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3447</x:v>
+        <x:v>3457</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1702</x:v>
+        <x:v>1706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1896</x:v>
+        <x:v>1899</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1772</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3664</x:v>
+        <x:v>3671</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2181</x:v>
+        <x:v>2184</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>2071</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4252</x:v>
+        <x:v>4255</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1980</x:v>
+        <x:v>1982</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>912</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2892</x:v>
+        <x:v>2894</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4416</x:v>
+        <x:v>4431</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2759</x:v>
+        <x:v>2762</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7175</x:v>
+        <x:v>7193</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1735</x:v>
+        <x:v>1739</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3457</x:v>
+        <x:v>3463</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>951</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1706</x:v>
+        <x:v>1707</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -494,10 +494,10 @@
         <x:v>4431</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2762</x:v>
+        <x:v>2763</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7193</x:v>
+        <x:v>7194</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1899</x:v>
+        <x:v>1906</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1772</x:v>
+        <x:v>1775</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3671</x:v>
+        <x:v>3681</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2184</x:v>
+        <x:v>2191</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>2071</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4255</x:v>
+        <x:v>4262</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1982</x:v>
+        <x:v>1984</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>912</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2894</x:v>
+        <x:v>2896</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1445</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>1824</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3269</x:v>
+        <x:v>3273</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4431</x:v>
+        <x:v>4441</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2763</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7194</x:v>
+        <x:v>7206</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1739</x:v>
+        <x:v>1741</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1724</x:v>
+        <x:v>1720</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3463</x:v>
+        <x:v>3461</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1707</x:v>
+        <x:v>1709</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1906</x:v>
+        <x:v>1910</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1775</x:v>
+        <x:v>1781</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3681</x:v>
+        <x:v>3691</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2191</x:v>
+        <x:v>2193</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2071</x:v>
+        <x:v>2074</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4262</x:v>
+        <x:v>4267</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>1449</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1824</x:v>
+        <x:v>1825</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3273</x:v>
+        <x:v>3274</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4441</x:v>
+        <x:v>4445</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2765</x:v>
+        <x:v>2766</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7206</x:v>
+        <x:v>7211</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1076</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2025</x:v>
+        <x:v>2037</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1741</x:v>
+        <x:v>1742</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1720</x:v>
+        <x:v>1727</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3461</x:v>
+        <x:v>3469</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>756</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1709</x:v>
+        <x:v>1713</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1910</x:v>
+        <x:v>1921</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1781</x:v>
+        <x:v>1784</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3691</x:v>
+        <x:v>3705</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2193</x:v>
+        <x:v>2196</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2074</x:v>
+        <x:v>2075</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4267</x:v>
+        <x:v>4271</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1449</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>1825</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3274</x:v>
+        <x:v>3275</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4445</x:v>
+        <x:v>4463</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2766</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7211</x:v>
+        <x:v>7234</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>631</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1363</x:v>
+        <x:v>1365</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1742</x:v>
+        <x:v>1772</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1727</x:v>
+        <x:v>1735</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3469</x:v>
+        <x:v>3507</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>349</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>758</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1713</x:v>
+        <x:v>1715</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1921</x:v>
+        <x:v>1930</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1784</x:v>
+        <x:v>1792</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3705</x:v>
+        <x:v>3722</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2196</x:v>
+        <x:v>2206</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2075</x:v>
+        <x:v>2081</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4271</x:v>
+        <x:v>4287</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1984</x:v>
+        <x:v>1986</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2896</x:v>
+        <x:v>2899</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1450</x:v>
+        <x:v>1455</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1825</x:v>
+        <x:v>1826</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3275</x:v>
+        <x:v>3281</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4463</x:v>
+        <x:v>4468</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2771</x:v>
+        <x:v>2774</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7234</x:v>
+        <x:v>7242</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1080</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2037</x:v>
+        <x:v>2040</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1395</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1772</x:v>
+        <x:v>1776</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1735</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3507</x:v>
+        <x:v>3516</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>957</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1716</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1930</x:v>
+        <x:v>1940</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1792</x:v>
+        <x:v>1795</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3722</x:v>
+        <x:v>3735</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2206</x:v>
+        <x:v>2245</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2081</x:v>
+        <x:v>2146</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4287</x:v>
+        <x:v>4391</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1455</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1826</x:v>
+        <x:v>1835</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3281</x:v>
+        <x:v>3298</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>4468</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2774</x:v>
+        <x:v>2777</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7242</x:v>
+        <x:v>7245</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1081</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2040</x:v>
+        <x:v>2049</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1395</x:v>
+        <x:v>1403</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1776</x:v>
+        <x:v>1783</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1740</x:v>
+        <x:v>1742</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3516</x:v>
+        <x:v>3525</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>350</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>759</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1716</x:v>
+        <x:v>1722</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>1940</x:v>
+        <x:v>2395</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>1795</x:v>
+        <x:v>2252</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3735</x:v>
+        <x:v>4647</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2245</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2146</x:v>
+        <x:v>2710</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>4391</x:v>
+        <x:v>5590</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>1986</x:v>
+        <x:v>2517</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>913</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2899</x:v>
+        <x:v>3676</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1463</x:v>
+        <x:v>1814</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>2281</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3298</x:v>
+        <x:v>4095</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>4468</x:v>
+        <x:v>5548</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>2777</x:v>
+        <x:v>3616</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>7245</x:v>
+        <x:v>9164</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>1211</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2049</x:v>
+        <x:v>2606</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>750</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1403</x:v>
+        <x:v>1736</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>1783</x:v>
+        <x:v>2196</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1742</x:v>
+        <x:v>2182</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3525</x:v>
+        <x:v>4378</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>876</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>1243</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>2197</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2395</x:v>
+        <x:v>2413</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2252</x:v>
+        <x:v>2286</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4647</x:v>
+        <x:v>4699</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2880</x:v>
+        <x:v>2897</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2710</x:v>
+        <x:v>2716</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5590</x:v>
+        <x:v>5613</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2517</x:v>
+        <x:v>2520</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1159</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3676</x:v>
+        <x:v>3683</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1814</x:v>
+        <x:v>1834</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2281</x:v>
+        <x:v>2292</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4095</x:v>
+        <x:v>4126</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5548</x:v>
+        <x:v>5596</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3616</x:v>
+        <x:v>3638</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9164</x:v>
+        <x:v>9234</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1211</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1395</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2606</x:v>
+        <x:v>2611</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,10 +519,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>922</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>1736</x:v>
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2196</x:v>
+        <x:v>2210</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2182</x:v>
+        <x:v>2190</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4378</x:v>
+        <x:v>4400</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>882</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1243</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2197</x:v>
+        <x:v>2203</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2413</x:v>
+        <x:v>2420</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>2286</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4699</x:v>
+        <x:v>4706</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2897</x:v>
+        <x:v>2915</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2716</x:v>
+        <x:v>2738</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5613</x:v>
+        <x:v>5653</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1834</x:v>
+        <x:v>1837</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2292</x:v>
+        <x:v>2294</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4126</x:v>
+        <x:v>4131</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5596</x:v>
+        <x:v>5612</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3638</x:v>
+        <x:v>3643</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9234</x:v>
+        <x:v>9255</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2210</x:v>
+        <x:v>2214</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2190</x:v>
+        <x:v>2191</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4400</x:v>
+        <x:v>4405</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>883</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1245</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2203</x:v>
+        <x:v>2210</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -438,10 +438,10 @@
         <x:v>2420</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2286</x:v>
+        <x:v>2289</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4706</x:v>
+        <x:v>4709</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2915</x:v>
+        <x:v>2913</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2738</x:v>
+        <x:v>2742</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5653</x:v>
+        <x:v>5655</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2520</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1163</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3683</x:v>
+        <x:v>3682</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1837</x:v>
+        <x:v>1839</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>2294</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4131</x:v>
+        <x:v>4133</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5612</x:v>
+        <x:v>5617</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3643</x:v>
+        <x:v>3649</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9255</x:v>
+        <x:v>9266</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>1214</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1397</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2611</x:v>
+        <x:v>2610</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2214</x:v>
+        <x:v>2216</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>2191</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4405</x:v>
+        <x:v>4407</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>883</x:v>
+        <x:v>885</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2420</x:v>
+        <x:v>2428</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2289</x:v>
+        <x:v>2290</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4709</x:v>
+        <x:v>4718</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2913</x:v>
+        <x:v>2914</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2742</x:v>
+        <x:v>2743</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5655</x:v>
+        <x:v>5657</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2525</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1163</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3682</x:v>
+        <x:v>3688</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>1839</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2294</x:v>
+        <x:v>2298</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4133</x:v>
+        <x:v>4137</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5617</x:v>
+        <x:v>5620</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3649</x:v>
+        <x:v>3651</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9266</x:v>
+        <x:v>9271</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2216</x:v>
+        <x:v>2215</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2191</x:v>
+        <x:v>2194</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4407</x:v>
+        <x:v>4409</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>427</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>886</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1249</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2210</x:v>
+        <x:v>2213</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,10 +435,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2428</x:v>
+        <x:v>2427</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2290</x:v>
+        <x:v>2291</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4718</x:v>
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2914</x:v>
+        <x:v>2920</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>2743</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5657</x:v>
+        <x:v>5663</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2525</x:v>
+        <x:v>2527</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1163</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3688</x:v>
+        <x:v>3691</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1839</x:v>
+        <x:v>1841</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>2298</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4137</x:v>
+        <x:v>4139</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5620</x:v>
+        <x:v>5638</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3651</x:v>
+        <x:v>3656</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9271</x:v>
+        <x:v>9294</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1214</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1396</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2610</x:v>
+        <x:v>2613</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2215</x:v>
+        <x:v>2220</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2194</x:v>
+        <x:v>2196</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4409</x:v>
+        <x:v>4416</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>427</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>887</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2427</x:v>
+        <x:v>2432</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2291</x:v>
+        <x:v>2293</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4718</x:v>
+        <x:v>4725</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2920</x:v>
+        <x:v>2921</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>2743</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5663</x:v>
+        <x:v>5664</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2526</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1164</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3691</x:v>
+        <x:v>3690</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1841</x:v>
+        <x:v>1844</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2298</x:v>
+        <x:v>2304</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4139</x:v>
+        <x:v>4148</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5638</x:v>
+        <x:v>5639</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3656</x:v>
+        <x:v>3659</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9294</x:v>
+        <x:v>9298</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>1216</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1397</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2613</x:v>
+        <x:v>2614</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>925</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>811</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1736</x:v>
+        <x:v>1737</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2432</x:v>
+        <x:v>2434</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2293</x:v>
+        <x:v>2294</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4725</x:v>
+        <x:v>4728</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2921</x:v>
+        <x:v>2918</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2743</x:v>
+        <x:v>2742</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5664</x:v>
+        <x:v>5660</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5639</x:v>
+        <x:v>5642</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>3659</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9298</x:v>
+        <x:v>9301</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1216</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1398</x:v>
+        <x:v>1401</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2614</x:v>
+        <x:v>2623</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2434</x:v>
+        <x:v>2435</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2294</x:v>
+        <x:v>2296</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4728</x:v>
+        <x:v>4731</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2918</x:v>
+        <x:v>2919</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>2742</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5660</x:v>
+        <x:v>5661</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -466,10 +466,10 @@
         <x:v>2526</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3690</x:v>
+        <x:v>3691</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5642</x:v>
+        <x:v>5646</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3659</x:v>
+        <x:v>3663</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9301</x:v>
+        <x:v>9309</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2435</x:v>
+        <x:v>2445</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2296</x:v>
+        <x:v>2299</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4731</x:v>
+        <x:v>4744</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2919</x:v>
+        <x:v>2924</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2742</x:v>
+        <x:v>2747</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5661</x:v>
+        <x:v>5671</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2527</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1165</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3691</x:v>
+        <x:v>3692</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1844</x:v>
+        <x:v>1847</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2304</x:v>
+        <x:v>2310</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4148</x:v>
+        <x:v>4157</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5646</x:v>
+        <x:v>5662</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3663</x:v>
+        <x:v>3668</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9309</x:v>
+        <x:v>9330</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>926</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1737</x:v>
+        <x:v>1790</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2220</x:v>
+        <x:v>2259</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2196</x:v>
+        <x:v>2223</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4416</x:v>
+        <x:v>4482</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>460</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>887</x:v>
+        <x:v>888</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,10 +561,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>963</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>2213</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2445</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2299</x:v>
+        <x:v>2783</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4744</x:v>
+        <x:v>5669</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>2924</x:v>
+        <x:v>3460</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2747</x:v>
+        <x:v>3317</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>5671</x:v>
+        <x:v>6777</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>3038</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3692</x:v>
+        <x:v>4435</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>1847</x:v>
+        <x:v>2155</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2310</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4157</x:v>
+        <x:v>4925</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>5662</x:v>
+        <x:v>6644</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>3668</x:v>
+        <x:v>4383</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>9330</x:v>
+        <x:v>11027</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1222</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1401</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2623</x:v>
+        <x:v>3182</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>831</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1790</x:v>
+        <x:v>2133</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2259</x:v>
+        <x:v>2744</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2223</x:v>
+        <x:v>2652</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>4482</x:v>
+        <x:v>5396</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>962</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2213</x:v>
+        <x:v>2674</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2897</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2783</x:v>
+        <x:v>2798</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5669</x:v>
+        <x:v>5695</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3460</x:v>
+        <x:v>3461</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3317</x:v>
+        <x:v>3319</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6777</x:v>
+        <x:v>6780</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3038</x:v>
+        <x:v>3040</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1397</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4435</x:v>
+        <x:v>4438</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2155</x:v>
+        <x:v>2158</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2770</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4925</x:v>
+        <x:v>4929</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6644</x:v>
+        <x:v>6660</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4383</x:v>
+        <x:v>4391</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11027</x:v>
+        <x:v>11051</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>1472</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3182</x:v>
+        <x:v>3184</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2133</x:v>
+        <x:v>2134</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2744</x:v>
+        <x:v>2749</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2652</x:v>
+        <x:v>2657</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5396</x:v>
+        <x:v>5406</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1041</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1167</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>1507</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2674</x:v>
+        <x:v>2676</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2897</x:v>
+        <x:v>2902</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2798</x:v>
+        <x:v>2801</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5695</x:v>
+        <x:v>5703</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3461</x:v>
+        <x:v>3465</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3319</x:v>
+        <x:v>3331</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6780</x:v>
+        <x:v>6796</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2158</x:v>
+        <x:v>2160</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2771</x:v>
+        <x:v>2772</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4929</x:v>
+        <x:v>4932</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6660</x:v>
+        <x:v>6691</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4391</x:v>
+        <x:v>4403</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11051</x:v>
+        <x:v>11094</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1143</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>991</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2134</x:v>
+        <x:v>2135</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2749</x:v>
+        <x:v>2750</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>2657</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5406</x:v>
+        <x:v>5407</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>500</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1041</x:v>
+        <x:v>1042</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1169</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1507</x:v>
+        <x:v>1509</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2676</x:v>
+        <x:v>2679</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2902</x:v>
+        <x:v>2909</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2801</x:v>
+        <x:v>2811</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5703</x:v>
+        <x:v>5720</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3465</x:v>
+        <x:v>3467</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3331</x:v>
+        <x:v>3333</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6796</x:v>
+        <x:v>6800</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2160</x:v>
+        <x:v>2163</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2772</x:v>
+        <x:v>2783</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4932</x:v>
+        <x:v>4946</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6691</x:v>
+        <x:v>6695</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4403</x:v>
+        <x:v>4415</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11094</x:v>
+        <x:v>11110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1472</x:v>
+        <x:v>1478</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1712</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3184</x:v>
+        <x:v>3193</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2657</x:v>
+        <x:v>2658</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5407</x:v>
+        <x:v>5408</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1042</x:v>
+        <x:v>1044</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2909</x:v>
+        <x:v>2910</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2811</x:v>
+        <x:v>2809</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5720</x:v>
+        <x:v>5719</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3467</x:v>
+        <x:v>3465</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3333</x:v>
+        <x:v>3337</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6800</x:v>
+        <x:v>6802</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3040</x:v>
+        <x:v>3042</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1398</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4438</x:v>
+        <x:v>4440</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2163</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2783</x:v>
+        <x:v>2785</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4946</x:v>
+        <x:v>4948</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6695</x:v>
+        <x:v>6713</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4415</x:v>
+        <x:v>4421</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11110</x:v>
+        <x:v>11134</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1478</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3193</x:v>
+        <x:v>3205</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1143</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2135</x:v>
+        <x:v>2136</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>2750</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2658</x:v>
+        <x:v>2660</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5408</x:v>
+        <x:v>5410</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2910</x:v>
+        <x:v>2915</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2809</x:v>
+        <x:v>2821</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5719</x:v>
+        <x:v>5736</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3465</x:v>
+        <x:v>3466</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3337</x:v>
+        <x:v>3340</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6802</x:v>
+        <x:v>6806</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -466,10 +466,10 @@
         <x:v>3042</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1398</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4440</x:v>
+        <x:v>4442</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2163</x:v>
+        <x:v>2168</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2785</x:v>
+        <x:v>2786</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4948</x:v>
+        <x:v>4954</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6713</x:v>
+        <x:v>6725</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4421</x:v>
+        <x:v>4432</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11134</x:v>
+        <x:v>11157</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>1718</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3205</x:v>
+        <x:v>3207</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2136</x:v>
+        <x:v>2139</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2750</x:v>
+        <x:v>2753</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2660</x:v>
+        <x:v>2666</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5410</x:v>
+        <x:v>5419</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2915</x:v>
+        <x:v>2925</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2821</x:v>
+        <x:v>2829</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5736</x:v>
+        <x:v>5754</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3466</x:v>
+        <x:v>3469</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3340</x:v>
+        <x:v>3342</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6806</x:v>
+        <x:v>6811</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3042</x:v>
+        <x:v>3044</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1400</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4442</x:v>
+        <x:v>4444</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2168</x:v>
+        <x:v>2172</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2786</x:v>
+        <x:v>2787</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4954</x:v>
+        <x:v>4959</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6725</x:v>
+        <x:v>6742</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4432</x:v>
+        <x:v>4435</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11157</x:v>
+        <x:v>11177</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1725</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3207</x:v>
+        <x:v>3213</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2753</x:v>
+        <x:v>2755</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2666</x:v>
+        <x:v>2673</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5419</x:v>
+        <x:v>5428</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1044</x:v>
+        <x:v>1047</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1170</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1509</x:v>
+        <x:v>1511</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2679</x:v>
+        <x:v>2682</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2925</x:v>
+        <x:v>2930</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2829</x:v>
+        <x:v>2831</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5754</x:v>
+        <x:v>5761</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3469</x:v>
+        <x:v>3471</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3342</x:v>
+        <x:v>3344</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6811</x:v>
+        <x:v>6815</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3044</x:v>
+        <x:v>3046</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1400</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4444</x:v>
+        <x:v>4446</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2172</x:v>
+        <x:v>2177</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2787</x:v>
+        <x:v>2788</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4959</x:v>
+        <x:v>4965</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6742</x:v>
+        <x:v>6754</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4435</x:v>
+        <x:v>4441</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11177</x:v>
+        <x:v>11195</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1725</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3213</x:v>
+        <x:v>3218</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1145</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>994</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2139</x:v>
+        <x:v>2135</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2755</x:v>
+        <x:v>2757</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2673</x:v>
+        <x:v>2677</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5428</x:v>
+        <x:v>5434</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1171</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>1511</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2682</x:v>
+        <x:v>2683</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2930</x:v>
+        <x:v>2932</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2831</x:v>
+        <x:v>2832</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5761</x:v>
+        <x:v>5764</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2177</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2788</x:v>
+        <x:v>2790</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4965</x:v>
+        <x:v>4967</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6754</x:v>
+        <x:v>6757</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4441</x:v>
+        <x:v>4439</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11195</x:v>
+        <x:v>11196</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>1490</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1728</x:v>
+        <x:v>1730</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3218</x:v>
+        <x:v>3220</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2757</x:v>
+        <x:v>2758</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2677</x:v>
+        <x:v>2678</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5434</x:v>
+        <x:v>5436</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>1172</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1511</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2683</x:v>
+        <x:v>2684</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2932</x:v>
+        <x:v>2936</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2832</x:v>
+        <x:v>2835</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5764</x:v>
+        <x:v>5771</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3471</x:v>
+        <x:v>3473</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3344</x:v>
+        <x:v>3346</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6815</x:v>
+        <x:v>6819</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3046</x:v>
+        <x:v>3047</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1400</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4446</x:v>
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2177</x:v>
+        <x:v>2180</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2790</x:v>
+        <x:v>2794</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4967</x:v>
+        <x:v>4974</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6757</x:v>
+        <x:v>6760</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4439</x:v>
+        <x:v>4448</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11196</x:v>
+        <x:v>11208</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1490</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1730</x:v>
+        <x:v>1731</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3220</x:v>
+        <x:v>3222</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2758</x:v>
+        <x:v>2759</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2678</x:v>
+        <x:v>2679</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5436</x:v>
+        <x:v>5438</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>503</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1172</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>1512</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2684</x:v>
+        <x:v>2686</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2936</x:v>
+        <x:v>2941</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2835</x:v>
+        <x:v>2838</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5771</x:v>
+        <x:v>5779</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3473</x:v>
+        <x:v>3471</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3346</x:v>
+        <x:v>3347</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6819</x:v>
+        <x:v>6818</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3047</x:v>
+        <x:v>3049</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4446</x:v>
+        <x:v>4448</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2180</x:v>
+        <x:v>2182</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>2794</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4974</x:v>
+        <x:v>4976</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6760</x:v>
+        <x:v>6779</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4448</x:v>
+        <x:v>4454</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11208</x:v>
+        <x:v>11233</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1491</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1731</x:v>
+        <x:v>1736</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3222</x:v>
+        <x:v>3241</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2135</x:v>
+        <x:v>2140</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2759</x:v>
+        <x:v>2764</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2679</x:v>
+        <x:v>2682</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5438</x:v>
+        <x:v>5446</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>545</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1049</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>1174</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1512</x:v>
+        <x:v>1514</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2686</x:v>
+        <x:v>2688</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2941</x:v>
+        <x:v>2942</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2838</x:v>
+        <x:v>2839</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5779</x:v>
+        <x:v>5781</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2182</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2794</x:v>
+        <x:v>2795</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4976</x:v>
+        <x:v>4977</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6779</x:v>
+        <x:v>6789</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4454</x:v>
+        <x:v>4457</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11233</x:v>
+        <x:v>11246</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1148</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2140</x:v>
+        <x:v>2137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2764</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>2682</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5446</x:v>
+        <x:v>5447</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2942</x:v>
+        <x:v>2947</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2839</x:v>
+        <x:v>2843</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5781</x:v>
+        <x:v>5790</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3471</x:v>
+        <x:v>3473</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3347</x:v>
+        <x:v>3348</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6818</x:v>
+        <x:v>6821</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3049</x:v>
+        <x:v>3051</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4448</x:v>
+        <x:v>4450</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2182</x:v>
+        <x:v>2184</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2795</x:v>
+        <x:v>2797</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4977</x:v>
+        <x:v>4981</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6789</x:v>
+        <x:v>6805</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4457</x:v>
+        <x:v>4461</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11246</x:v>
+        <x:v>11266</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1506</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1736</x:v>
+        <x:v>1739</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3241</x:v>
+        <x:v>3245</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2765</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2682</x:v>
+        <x:v>2696</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5447</x:v>
+        <x:v>5466</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>545</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1055</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1174</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1515</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2688</x:v>
+        <x:v>2690</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2947</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2843</x:v>
+        <x:v>2849</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5790</x:v>
+        <x:v>5803</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3473</x:v>
+        <x:v>3482</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>3348</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6821</x:v>
+        <x:v>6830</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2184</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2797</x:v>
+        <x:v>2798</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4981</x:v>
+        <x:v>4982</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6805</x:v>
+        <x:v>6810</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4461</x:v>
+        <x:v>4466</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11266</x:v>
+        <x:v>11276</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1506</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1739</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3245</x:v>
+        <x:v>3247</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>989</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2137</x:v>
+        <x:v>2139</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2770</x:v>
+        <x:v>2776</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2696</x:v>
+        <x:v>2709</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5466</x:v>
+        <x:v>5485</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1063</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>1515</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2690</x:v>
+        <x:v>2692</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2957</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>2849</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5803</x:v>
+        <x:v>5806</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3482</x:v>
+        <x:v>3479</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3348</x:v>
+        <x:v>3350</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6830</x:v>
+        <x:v>6829</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3051</x:v>
+        <x:v>3053</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4450</x:v>
+        <x:v>4452</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2184</x:v>
+        <x:v>2185</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2798</x:v>
+        <x:v>2800</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4982</x:v>
+        <x:v>4985</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6810</x:v>
+        <x:v>6811</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4466</x:v>
+        <x:v>4467</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11276</x:v>
+        <x:v>11278</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>1507</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1740</x:v>
+        <x:v>1743</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3247</x:v>
+        <x:v>3250</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2139</x:v>
+        <x:v>2223</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2776</x:v>
+        <x:v>2779</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2709</x:v>
+        <x:v>2711</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5485</x:v>
+        <x:v>5490</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1063</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>1177</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1515</x:v>
+        <x:v>1516</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2692</x:v>
+        <x:v>2693</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>2957</x:v>
+        <x:v>3428</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2849</x:v>
+        <x:v>3416</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>5806</x:v>
+        <x:v>6844</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>3479</x:v>
+        <x:v>4036</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3892</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6829</x:v>
+        <x:v>7928</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3053</x:v>
+        <x:v>3610</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1399</x:v>
+        <x:v>1636</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4452</x:v>
+        <x:v>5246</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2185</x:v>
+        <x:v>2540</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2800</x:v>
+        <x:v>3302</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4985</x:v>
+        <x:v>5842</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>6811</x:v>
+        <x:v>8031</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>4467</x:v>
+        <x:v>5523</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>11278</x:v>
+        <x:v>13554</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1507</x:v>
+        <x:v>1786</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1743</x:v>
+        <x:v>2038</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3250</x:v>
+        <x:v>3824</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1195</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1028</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2223</x:v>
+        <x:v>2656</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>2779</x:v>
+        <x:v>3348</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2711</x:v>
+        <x:v>3256</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>5490</x:v>
+        <x:v>6604</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1067</x:v>
+        <x:v>1261</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1177</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1516</x:v>
+        <x:v>1751</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2693</x:v>
+        <x:v>3130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3428</x:v>
+        <x:v>3440</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3416</x:v>
+        <x:v>3418</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6844</x:v>
+        <x:v>6858</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4036</x:v>
+        <x:v>4038</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>3892</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7928</x:v>
+        <x:v>7930</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3610</x:v>
+        <x:v>3612</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1636</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5246</x:v>
+        <x:v>5248</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2540</x:v>
+        <x:v>2542</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3302</x:v>
+        <x:v>3305</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5842</x:v>
+        <x:v>5847</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8031</x:v>
+        <x:v>8035</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5523</x:v>
+        <x:v>5526</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13554</x:v>
+        <x:v>13561</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1234</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2656</x:v>
+        <x:v>2659</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3348</x:v>
+        <x:v>3349</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3256</x:v>
+        <x:v>3259</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6604</x:v>
+        <x:v>6608</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>611</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1261</x:v>
+        <x:v>1264</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3440</x:v>
+        <x:v>3457</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3418</x:v>
+        <x:v>3426</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6858</x:v>
+        <x:v>6883</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4038</x:v>
+        <x:v>4043</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3892</x:v>
+        <x:v>3893</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7930</x:v>
+        <x:v>7936</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3612</x:v>
+        <x:v>3613</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1636</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5248</x:v>
+        <x:v>5249</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2542</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3305</x:v>
+        <x:v>3306</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5847</x:v>
+        <x:v>5848</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8035</x:v>
+        <x:v>8057</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5526</x:v>
+        <x:v>5531</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13561</x:v>
+        <x:v>13588</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1793</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2038</x:v>
+        <x:v>2041</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3824</x:v>
+        <x:v>3834</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3349</x:v>
+        <x:v>3351</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3259</x:v>
+        <x:v>3263</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6608</x:v>
+        <x:v>6614</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>613</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1265</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,10 +561,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1751</x:v>
+        <x:v>1750</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>3130</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3457</x:v>
+        <x:v>3461</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3426</x:v>
+        <x:v>3429</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6883</x:v>
+        <x:v>6890</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4043</x:v>
+        <x:v>4047</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3893</x:v>
+        <x:v>3899</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7936</x:v>
+        <x:v>7946</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2542</x:v>
+        <x:v>2547</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3306</x:v>
+        <x:v>3307</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5848</x:v>
+        <x:v>5854</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8057</x:v>
+        <x:v>8086</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5531</x:v>
+        <x:v>5559</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13588</x:v>
+        <x:v>13645</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1793</x:v>
+        <x:v>1795</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2041</x:v>
+        <x:v>2042</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3834</x:v>
+        <x:v>3837</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1234</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2659</x:v>
+        <x:v>2658</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3351</x:v>
+        <x:v>3354</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3263</x:v>
+        <x:v>3267</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6614</x:v>
+        <x:v>6621</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>613</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>652</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1265</x:v>
+        <x:v>1267</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>1380</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1750</x:v>
+        <x:v>1751</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3130</x:v>
+        <x:v>3131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3461</x:v>
+        <x:v>3474</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3429</x:v>
+        <x:v>3434</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6890</x:v>
+        <x:v>6908</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4047</x:v>
+        <x:v>4048</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3899</x:v>
+        <x:v>3905</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7946</x:v>
+        <x:v>7953</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2547</x:v>
+        <x:v>2549</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3307</x:v>
+        <x:v>3310</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5854</x:v>
+        <x:v>5859</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8086</x:v>
+        <x:v>8115</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5559</x:v>
+        <x:v>5563</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13645</x:v>
+        <x:v>13678</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1795</x:v>
+        <x:v>1798</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>2042</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3837</x:v>
+        <x:v>3840</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3354</x:v>
+        <x:v>3357</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3267</x:v>
+        <x:v>3268</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6621</x:v>
+        <x:v>6625</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>615</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1267</x:v>
+        <x:v>1269</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1380</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1751</x:v>
+        <x:v>1754</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3131</x:v>
+        <x:v>3138</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3474</x:v>
+        <x:v>3473</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3434</x:v>
+        <x:v>3437</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6908</x:v>
+        <x:v>6910</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4048</x:v>
+        <x:v>4052</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>3905</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7953</x:v>
+        <x:v>7957</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3613</x:v>
+        <x:v>3612</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1636</x:v>
+        <x:v>1639</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5249</x:v>
+        <x:v>5251</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2549</x:v>
+        <x:v>2552</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3310</x:v>
+        <x:v>3313</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5859</x:v>
+        <x:v>5865</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8115</x:v>
+        <x:v>8124</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5563</x:v>
+        <x:v>5570</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13678</x:v>
+        <x:v>13694</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1233</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2658</x:v>
+        <x:v>2659</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3357</x:v>
+        <x:v>3370</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3268</x:v>
+        <x:v>3278</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6625</x:v>
+        <x:v>6648</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1274</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1384</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1754</x:v>
+        <x:v>1755</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3138</x:v>
+        <x:v>3140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3473</x:v>
+        <x:v>3482</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3437</x:v>
+        <x:v>3440</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6910</x:v>
+        <x:v>6922</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4052</x:v>
+        <x:v>4056</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3905</x:v>
+        <x:v>3908</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7957</x:v>
+        <x:v>7964</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3612</x:v>
+        <x:v>3615</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1639</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5251</x:v>
+        <x:v>5254</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2552</x:v>
+        <x:v>2556</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3313</x:v>
+        <x:v>3316</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5865</x:v>
+        <x:v>5872</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8124</x:v>
+        <x:v>8132</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5570</x:v>
+        <x:v>5578</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13694</x:v>
+        <x:v>13710</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1798</x:v>
+        <x:v>1799</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>2042</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3840</x:v>
+        <x:v>3841</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1425</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1234</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2659</x:v>
+        <x:v>2662</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3370</x:v>
+        <x:v>3377</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3278</x:v>
+        <x:v>3281</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6648</x:v>
+        <x:v>6658</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1274</x:v>
+        <x:v>1277</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3482</x:v>
+        <x:v>3486</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3440</x:v>
+        <x:v>3444</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6922</x:v>
+        <x:v>6930</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4056</x:v>
+        <x:v>4065</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3908</x:v>
+        <x:v>3915</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7964</x:v>
+        <x:v>7980</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2556</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3316</x:v>
+        <x:v>3318</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5872</x:v>
+        <x:v>5874</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8132</x:v>
+        <x:v>8138</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5578</x:v>
+        <x:v>5580</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13710</x:v>
+        <x:v>13718</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1799</x:v>
+        <x:v>1803</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2042</x:v>
+        <x:v>2051</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3841</x:v>
+        <x:v>3854</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3377</x:v>
+        <x:v>3378</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3281</x:v>
+        <x:v>3284</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6658</x:v>
+        <x:v>6662</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1385</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>1755</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3140</x:v>
+        <x:v>3141</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3486</x:v>
+        <x:v>3490</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3444</x:v>
+        <x:v>3445</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6930</x:v>
+        <x:v>6935</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4065</x:v>
+        <x:v>4064</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3915</x:v>
+        <x:v>3917</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7980</x:v>
+        <x:v>7981</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2556</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3318</x:v>
+        <x:v>3323</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5874</x:v>
+        <x:v>5879</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8138</x:v>
+        <x:v>8142</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5580</x:v>
+        <x:v>5581</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13718</x:v>
+        <x:v>13723</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1803</x:v>
+        <x:v>1806</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2055</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3854</x:v>
+        <x:v>3861</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1234</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2662</x:v>
+        <x:v>2663</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -438,10 +438,10 @@
         <x:v>3490</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3445</x:v>
+        <x:v>3447</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6935</x:v>
+        <x:v>6937</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2556</x:v>
+        <x:v>2559</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3323</x:v>
+        <x:v>3326</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5879</x:v>
+        <x:v>5885</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8142</x:v>
+        <x:v>8145</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5581</x:v>
+        <x:v>5582</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13723</x:v>
+        <x:v>13727</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3378</x:v>
+        <x:v>3379</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3284</x:v>
+        <x:v>3285</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6662</x:v>
+        <x:v>6664</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1386</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1755</x:v>
+        <x:v>1762</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3141</x:v>
+        <x:v>3156</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3490</x:v>
+        <x:v>3498</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3447</x:v>
+        <x:v>3457</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6937</x:v>
+        <x:v>6955</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4064</x:v>
+        <x:v>4065</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3917</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7981</x:v>
+        <x:v>7984</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2559</x:v>
+        <x:v>2563</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3326</x:v>
+        <x:v>3327</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5885</x:v>
+        <x:v>5890</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8145</x:v>
+        <x:v>8152</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5582</x:v>
+        <x:v>5584</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13727</x:v>
+        <x:v>13736</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1806</x:v>
+        <x:v>1810</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2055</x:v>
+        <x:v>2058</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3861</x:v>
+        <x:v>3868</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1235</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2663</x:v>
+        <x:v>2667</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3379</x:v>
+        <x:v>3381</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3285</x:v>
+        <x:v>3289</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6664</x:v>
+        <x:v>6670</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>656</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1277</x:v>
+        <x:v>1281</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3498</x:v>
+        <x:v>3501</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3457</x:v>
+        <x:v>3458</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6955</x:v>
+        <x:v>6959</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4065</x:v>
+        <x:v>4063</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3919</x:v>
+        <x:v>3920</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7984</x:v>
+        <x:v>7983</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -466,10 +466,10 @@
         <x:v>3615</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1639</x:v>
+        <x:v>1640</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5254</x:v>
+        <x:v>5255</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2563</x:v>
+        <x:v>2565</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>3327</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5890</x:v>
+        <x:v>5892</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8152</x:v>
+        <x:v>8157</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5584</x:v>
+        <x:v>5588</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13736</x:v>
+        <x:v>13745</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>1810</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2058</x:v>
+        <x:v>2059</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3868</x:v>
+        <x:v>3869</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1432</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1235</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2667</x:v>
+        <x:v>2704</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3381</x:v>
+        <x:v>3390</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3289</x:v>
+        <x:v>3290</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6670</x:v>
+        <x:v>6680</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>623</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1284</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3954</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3458</x:v>
+        <x:v>3914</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>6959</x:v>
+        <x:v>7868</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4063</x:v>
+        <x:v>4573</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>3920</x:v>
+        <x:v>4355</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>7983</x:v>
+        <x:v>8928</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>3615</x:v>
+        <x:v>4137</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1640</x:v>
+        <x:v>1869</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5255</x:v>
+        <x:v>6006</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2565</x:v>
+        <x:v>2935</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3327</x:v>
+        <x:v>3792</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5892</x:v>
+        <x:v>6727</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>8157</x:v>
+        <x:v>9323</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5588</x:v>
+        <x:v>6480</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>13745</x:v>
+        <x:v>15803</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>1810</x:v>
+        <x:v>2026</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2059</x:v>
+        <x:v>2419</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>3869</x:v>
+        <x:v>4445</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1454</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1479</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>3191</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3390</x:v>
+        <x:v>3920</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3290</x:v>
+        <x:v>3828</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>6680</x:v>
+        <x:v>7748</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>661</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1451</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1394</x:v>
+        <x:v>1606</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1762</x:v>
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3156</x:v>
+        <x:v>3628</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3954</x:v>
+        <x:v>3966</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3914</x:v>
+        <x:v>3920</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7868</x:v>
+        <x:v>7886</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4573</x:v>
+        <x:v>4579</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4355</x:v>
+        <x:v>4357</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>8928</x:v>
+        <x:v>8936</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4137</x:v>
+        <x:v>4177</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1869</x:v>
+        <x:v>1885</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6006</x:v>
+        <x:v>6062</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2935</x:v>
+        <x:v>2938</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>3792</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6727</x:v>
+        <x:v>6730</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9323</x:v>
+        <x:v>9343</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6480</x:v>
+        <x:v>6495</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15803</x:v>
+        <x:v>15838</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>2026</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2419</x:v>
+        <x:v>2420</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4445</x:v>
+        <x:v>4446</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1712</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1479</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3191</x:v>
+        <x:v>3193</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3920</x:v>
+        <x:v>3925</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3828</x:v>
+        <x:v>3832</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7748</x:v>
+        <x:v>7757</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>743</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1451</x:v>
+        <x:v>1452</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1606</x:v>
+        <x:v>1630</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2022</x:v>
+        <x:v>2062</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3628</x:v>
+        <x:v>3692</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3966</x:v>
+        <x:v>3996</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3920</x:v>
+        <x:v>3934</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7886</x:v>
+        <x:v>7930</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4579</x:v>
+        <x:v>4684</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4357</x:v>
+        <x:v>4474</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>8936</x:v>
+        <x:v>9158</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4177</x:v>
+        <x:v>4185</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1885</x:v>
+        <x:v>1894</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6062</x:v>
+        <x:v>6079</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2938</x:v>
+        <x:v>2944</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3792</x:v>
+        <x:v>3797</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6730</x:v>
+        <x:v>6741</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9343</x:v>
+        <x:v>9367</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6495</x:v>
+        <x:v>6513</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15838</x:v>
+        <x:v>15880</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>2026</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2420</x:v>
+        <x:v>2421</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4446</x:v>
+        <x:v>4447</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1712</x:v>
+        <x:v>1713</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1481</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3193</x:v>
+        <x:v>3194</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3925</x:v>
+        <x:v>3930</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3832</x:v>
+        <x:v>3837</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7757</x:v>
+        <x:v>7767</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1454</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1630</x:v>
+        <x:v>1644</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2062</x:v>
+        <x:v>2069</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3692</x:v>
+        <x:v>3713</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>3996</x:v>
+        <x:v>4003</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>3934</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7930</x:v>
+        <x:v>7937</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4684</x:v>
+        <x:v>4691</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4474</x:v>
+        <x:v>4478</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9158</x:v>
+        <x:v>9169</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2944</x:v>
+        <x:v>2947</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3797</x:v>
+        <x:v>3800</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6741</x:v>
+        <x:v>6747</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9367</x:v>
+        <x:v>9384</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6513</x:v>
+        <x:v>6525</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15880</x:v>
+        <x:v>15909</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3930</x:v>
+        <x:v>3931</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3837</x:v>
+        <x:v>3839</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7767</x:v>
+        <x:v>7770</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1644</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2070</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3713</x:v>
+        <x:v>3718</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4003</x:v>
+        <x:v>4008</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3934</x:v>
+        <x:v>3940</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7937</x:v>
+        <x:v>7948</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4691</x:v>
+        <x:v>4690</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4478</x:v>
+        <x:v>4482</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9169</x:v>
+        <x:v>9172</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4185</x:v>
+        <x:v>4186</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1894</x:v>
+        <x:v>1895</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6079</x:v>
+        <x:v>6081</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2947</x:v>
+        <x:v>2949</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3800</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6747</x:v>
+        <x:v>6760</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9384</x:v>
+        <x:v>9407</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6525</x:v>
+        <x:v>6543</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15909</x:v>
+        <x:v>15950</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>2026</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2421</x:v>
+        <x:v>2422</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4447</x:v>
+        <x:v>4448</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1713</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1481</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3194</x:v>
+        <x:v>3196</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3931</x:v>
+        <x:v>3933</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3839</x:v>
+        <x:v>3843</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7770</x:v>
+        <x:v>7776</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>744</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1454</x:v>
+        <x:v>1455</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1648</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>2070</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3718</x:v>
+        <x:v>3719</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4008</x:v>
+        <x:v>4011</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3940</x:v>
+        <x:v>3949</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7948</x:v>
+        <x:v>7960</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4690</x:v>
+        <x:v>4694</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4482</x:v>
+        <x:v>4483</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9172</x:v>
+        <x:v>9177</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4186</x:v>
+        <x:v>4187</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1895</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6081</x:v>
+        <x:v>6082</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2949</x:v>
+        <x:v>2954</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3811</x:v>
+        <x:v>3814</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6760</x:v>
+        <x:v>6768</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9407</x:v>
+        <x:v>9425</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6543</x:v>
+        <x:v>6549</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15950</x:v>
+        <x:v>15974</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>2026</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2422</x:v>
+        <x:v>2425</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4448</x:v>
+        <x:v>4451</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,10 +519,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1481</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>3196</x:v>
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3933</x:v>
+        <x:v>3936</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3843</x:v>
+        <x:v>3845</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7776</x:v>
+        <x:v>7781</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1455</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1649</x:v>
+        <x:v>1654</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>2070</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3719</x:v>
+        <x:v>3724</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4011</x:v>
+        <x:v>4014</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3949</x:v>
+        <x:v>3950</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7960</x:v>
+        <x:v>7964</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4694</x:v>
+        <x:v>4703</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4483</x:v>
+        <x:v>4484</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9177</x:v>
+        <x:v>9187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4187</x:v>
+        <x:v>4188</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1895</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6082</x:v>
+        <x:v>6083</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2954</x:v>
+        <x:v>2956</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3814</x:v>
+        <x:v>3818</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6768</x:v>
+        <x:v>6774</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9425</x:v>
+        <x:v>9428</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6549</x:v>
+        <x:v>6553</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15974</x:v>
+        <x:v>15981</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3936</x:v>
+        <x:v>3937</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3845</x:v>
+        <x:v>3846</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7781</x:v>
+        <x:v>7783</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1654</x:v>
+        <x:v>1658</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2070</x:v>
+        <x:v>2082</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3724</x:v>
+        <x:v>3740</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4014</x:v>
+        <x:v>4022</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3950</x:v>
+        <x:v>3955</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7964</x:v>
+        <x:v>7977</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4703</x:v>
+        <x:v>4697</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4484</x:v>
+        <x:v>4486</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9187</x:v>
+        <x:v>9183</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2956</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3818</x:v>
+        <x:v>3819</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6774</x:v>
+        <x:v>6778</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9428</x:v>
+        <x:v>9454</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6553</x:v>
+        <x:v>6566</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>15981</x:v>
+        <x:v>16020</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2026</x:v>
+        <x:v>2027</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2425</x:v>
+        <x:v>2427</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4451</x:v>
+        <x:v>4454</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1716</x:v>
+        <x:v>1717</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1480</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3196</x:v>
+        <x:v>3197</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>3937</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3846</x:v>
+        <x:v>3850</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7783</x:v>
+        <x:v>7787</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1658</x:v>
+        <x:v>1661</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2082</x:v>
+        <x:v>2086</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3740</x:v>
+        <x:v>3747</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4022</x:v>
+        <x:v>4047</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3955</x:v>
+        <x:v>3962</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7977</x:v>
+        <x:v>8009</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4697</x:v>
+        <x:v>4703</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4486</x:v>
+        <x:v>4489</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9183</x:v>
+        <x:v>9192</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4188</x:v>
+        <x:v>4192</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1895</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6083</x:v>
+        <x:v>6087</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2959</x:v>
+        <x:v>2966</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3819</x:v>
+        <x:v>3824</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6778</x:v>
+        <x:v>6790</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9454</x:v>
+        <x:v>9495</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6566</x:v>
+        <x:v>6578</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>16020</x:v>
+        <x:v>16073</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2027</x:v>
+        <x:v>2028</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2427</x:v>
+        <x:v>2435</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4454</x:v>
+        <x:v>4463</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1717</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1480</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3197</x:v>
+        <x:v>3199</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3937</x:v>
+        <x:v>3953</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3850</x:v>
+        <x:v>3861</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7787</x:v>
+        <x:v>7814</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1661</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2086</x:v>
+        <x:v>2108</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3747</x:v>
+        <x:v>3800</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4047</x:v>
+        <x:v>4060</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3962</x:v>
+        <x:v>3969</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8009</x:v>
+        <x:v>8029</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4703</x:v>
+        <x:v>4706</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4489</x:v>
+        <x:v>4500</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9192</x:v>
+        <x:v>9206</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2966</x:v>
+        <x:v>2990</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3824</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6790</x:v>
+        <x:v>6816</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9495</x:v>
+        <x:v>9505</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6578</x:v>
+        <x:v>6579</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>16073</x:v>
+        <x:v>16084</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2028</x:v>
+        <x:v>2033</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2435</x:v>
+        <x:v>2442</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4463</x:v>
+        <x:v>4475</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3953</x:v>
+        <x:v>3954</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3861</x:v>
+        <x:v>3865</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7814</x:v>
+        <x:v>7819</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>746</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1460</x:v>
+        <x:v>1461</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>1693</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2108</x:v>
+        <x:v>2112</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3800</x:v>
+        <x:v>3805</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4060</x:v>
+        <x:v>4065</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3969</x:v>
+        <x:v>3971</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8029</x:v>
+        <x:v>8036</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4706</x:v>
+        <x:v>4714</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4500</x:v>
+        <x:v>4503</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9206</x:v>
+        <x:v>9217</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4192</x:v>
+        <x:v>4191</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1895</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6087</x:v>
+        <x:v>6086</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2990</x:v>
+        <x:v>2991</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>3826</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6816</x:v>
+        <x:v>6817</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9505</x:v>
+        <x:v>9520</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6579</x:v>
+        <x:v>6582</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>16084</x:v>
+        <x:v>16102</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>2033</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2442</x:v>
+        <x:v>2444</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4475</x:v>
+        <x:v>4477</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1481</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3199</x:v>
+        <x:v>3212</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3954</x:v>
+        <x:v>3957</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>3865</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7819</x:v>
+        <x:v>7822</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>748</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1461</x:v>
+        <x:v>1466</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>1693</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2112</x:v>
+        <x:v>2113</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3805</x:v>
+        <x:v>3806</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4065</x:v>
+        <x:v>4070</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>3971</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8036</x:v>
+        <x:v>8041</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4714</x:v>
+        <x:v>4717</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4503</x:v>
+        <x:v>4508</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9217</x:v>
+        <x:v>9225</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4191</x:v>
+        <x:v>4192</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1895</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6086</x:v>
+        <x:v>6087</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>2991</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3826</x:v>
+        <x:v>3827</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6817</x:v>
+        <x:v>6818</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9520</x:v>
+        <x:v>9526</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6582</x:v>
+        <x:v>6586</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>16102</x:v>
+        <x:v>16112</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2033</x:v>
+        <x:v>2048</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2444</x:v>
+        <x:v>2449</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4477</x:v>
+        <x:v>4497</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3957</x:v>
+        <x:v>3959</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>3865</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7822</x:v>
+        <x:v>7824</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1693</x:v>
+        <x:v>1697</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2113</x:v>
+        <x:v>2117</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3806</x:v>
+        <x:v>3814</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4070</x:v>
+        <x:v>4536</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3971</x:v>
+        <x:v>4446</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8041</x:v>
+        <x:v>8982</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>4717</x:v>
+        <x:v>5262</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>4508</x:v>
+        <x:v>5029</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>9225</x:v>
+        <x:v>10291</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4192</x:v>
+        <x:v>4765</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>1895</x:v>
+        <x:v>2177</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6087</x:v>
+        <x:v>6942</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>2991</x:v>
+        <x:v>3344</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3827</x:v>
+        <x:v>4220</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>6818</x:v>
+        <x:v>7564</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>9526</x:v>
+        <x:v>10711</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>6586</x:v>
+        <x:v>7342</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>16112</x:v>
+        <x:v>18053</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2048</x:v>
+        <x:v>2288</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2449</x:v>
+        <x:v>2762</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4497</x:v>
+        <x:v>5050</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1724</x:v>
+        <x:v>1981</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3212</x:v>
+        <x:v>3696</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>3959</x:v>
+        <x:v>4375</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3865</x:v>
+        <x:v>4281</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>7824</x:v>
+        <x:v>8656</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>750</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1466</x:v>
+        <x:v>1618</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1697</x:v>
+        <x:v>1883</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2117</x:v>
+        <x:v>2364</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3814</x:v>
+        <x:v>4247</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4536</x:v>
+        <x:v>4546</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4446</x:v>
+        <x:v>4449</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8982</x:v>
+        <x:v>8995</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5262</x:v>
+        <x:v>5280</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5029</x:v>
+        <x:v>5037</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10291</x:v>
+        <x:v>10317</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4765</x:v>
+        <x:v>4770</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2177</x:v>
+        <x:v>2178</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6942</x:v>
+        <x:v>6948</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3344</x:v>
+        <x:v>3352</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4220</x:v>
+        <x:v>4224</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7564</x:v>
+        <x:v>7576</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10711</x:v>
+        <x:v>10799</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7342</x:v>
+        <x:v>7366</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18053</x:v>
+        <x:v>18165</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2288</x:v>
+        <x:v>2291</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2762</x:v>
+        <x:v>2763</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5050</x:v>
+        <x:v>5054</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1981</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3696</x:v>
+        <x:v>3697</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4375</x:v>
+        <x:v>4381</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4281</x:v>
+        <x:v>4289</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8656</x:v>
+        <x:v>8670</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>833</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1618</x:v>
+        <x:v>1621</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1883</x:v>
+        <x:v>1886</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2364</x:v>
+        <x:v>2370</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4247</x:v>
+        <x:v>4256</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4546</x:v>
+        <x:v>4549</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>4449</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8995</x:v>
+        <x:v>8998</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5280</x:v>
+        <x:v>5286</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5037</x:v>
+        <x:v>5046</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10317</x:v>
+        <x:v>10332</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4770</x:v>
+        <x:v>4780</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2178</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6948</x:v>
+        <x:v>6958</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3352</x:v>
+        <x:v>3353</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4224</x:v>
+        <x:v>4226</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7576</x:v>
+        <x:v>7579</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10799</x:v>
+        <x:v>10802</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7366</x:v>
+        <x:v>7372</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18165</x:v>
+        <x:v>18174</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2291</x:v>
+        <x:v>2293</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2763</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5054</x:v>
+        <x:v>5058</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>1981</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1716</x:v>
+        <x:v>1717</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3697</x:v>
+        <x:v>3698</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4381</x:v>
+        <x:v>4386</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4289</x:v>
+        <x:v>4292</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8670</x:v>
+        <x:v>8678</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1886</x:v>
+        <x:v>1887</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2370</x:v>
+        <x:v>2373</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4256</x:v>
+        <x:v>4260</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4549</x:v>
+        <x:v>4555</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4449</x:v>
+        <x:v>4453</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8998</x:v>
+        <x:v>9008</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5286</x:v>
+        <x:v>5300</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5046</x:v>
+        <x:v>5048</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10332</x:v>
+        <x:v>10348</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3353</x:v>
+        <x:v>3357</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4226</x:v>
+        <x:v>4228</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7579</x:v>
+        <x:v>7585</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10802</x:v>
+        <x:v>10813</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7372</x:v>
+        <x:v>7374</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18174</x:v>
+        <x:v>18187</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,10 +505,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2293</x:v>
+        <x:v>2292</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2765</x:v>
+        <x:v>2766</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>5058</x:v>
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1981</x:v>
+        <x:v>1983</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1717</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3698</x:v>
+        <x:v>3693</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4386</x:v>
+        <x:v>4382</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4292</x:v>
+        <x:v>4301</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8678</x:v>
+        <x:v>8683</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1887</x:v>
+        <x:v>1909</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2373</x:v>
+        <x:v>2380</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4260</x:v>
+        <x:v>4289</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4555</x:v>
+        <x:v>4556</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4453</x:v>
+        <x:v>4455</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>9008</x:v>
+        <x:v>9011</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5300</x:v>
+        <x:v>5303</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5048</x:v>
+        <x:v>5051</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10348</x:v>
+        <x:v>10354</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3357</x:v>
+        <x:v>3360</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4228</x:v>
+        <x:v>4227</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7585</x:v>
+        <x:v>7587</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10813</x:v>
+        <x:v>10814</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7374</x:v>
+        <x:v>7377</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18187</x:v>
+        <x:v>18191</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2292</x:v>
+        <x:v>2294</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2766</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5058</x:v>
+        <x:v>5064</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4382</x:v>
+        <x:v>4384</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4301</x:v>
+        <x:v>4302</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8683</x:v>
+        <x:v>8686</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>787</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>834</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1621</x:v>
+        <x:v>1624</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1909</x:v>
+        <x:v>1908</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>2380</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4289</x:v>
+        <x:v>4288</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4556</x:v>
+        <x:v>4572</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4455</x:v>
+        <x:v>4464</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>9011</x:v>
+        <x:v>9036</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5303</x:v>
+        <x:v>5330</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5051</x:v>
+        <x:v>5093</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10354</x:v>
+        <x:v>10423</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4780</x:v>
+        <x:v>4782</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2178</x:v>
+        <x:v>2193</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6958</x:v>
+        <x:v>6975</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3360</x:v>
+        <x:v>3373</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4227</x:v>
+        <x:v>4232</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7587</x:v>
+        <x:v>7605</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10814</x:v>
+        <x:v>10849</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7377</x:v>
+        <x:v>7397</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18191</x:v>
+        <x:v>18246</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2294</x:v>
+        <x:v>2300</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2770</x:v>
+        <x:v>2776</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5064</x:v>
+        <x:v>5076</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1983</x:v>
+        <x:v>1997</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3693</x:v>
+        <x:v>3715</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4384</x:v>
+        <x:v>4413</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4302</x:v>
+        <x:v>4333</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8686</x:v>
+        <x:v>8746</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>787</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>837</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1628</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1908</x:v>
+        <x:v>1957</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2380</x:v>
+        <x:v>2400</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4288</x:v>
+        <x:v>4357</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4572</x:v>
+        <x:v>4578</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4464</x:v>
+        <x:v>4469</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>9036</x:v>
+        <x:v>9047</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5330</x:v>
+        <x:v>5335</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5093</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10423</x:v>
+        <x:v>10428</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4782</x:v>
+        <x:v>4781</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2193</x:v>
+        <x:v>2192</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6975</x:v>
+        <x:v>6973</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3373</x:v>
+        <x:v>3375</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4232</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7605</x:v>
+        <x:v>7607</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10849</x:v>
+        <x:v>10851</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7397</x:v>
+        <x:v>7403</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18246</x:v>
+        <x:v>18254</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4413</x:v>
+        <x:v>4416</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4333</x:v>
+        <x:v>4334</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8746</x:v>
+        <x:v>8750</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4578</x:v>
+        <x:v>4581</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4469</x:v>
+        <x:v>4470</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>9047</x:v>
+        <x:v>9051</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5335</x:v>
+        <x:v>5336</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5093</x:v>
+        <x:v>5094</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10428</x:v>
+        <x:v>10430</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4781</x:v>
+        <x:v>4783</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2192</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6973</x:v>
+        <x:v>6975</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3375</x:v>
+        <x:v>3376</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4232</x:v>
+        <x:v>4233</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7607</x:v>
+        <x:v>7609</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10851</x:v>
+        <x:v>10852</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7403</x:v>
+        <x:v>7406</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18254</x:v>
+        <x:v>18258</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2300</x:v>
+        <x:v>2301</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2776</x:v>
+        <x:v>2777</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5076</x:v>
+        <x:v>5078</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4416</x:v>
+        <x:v>4421</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4334</x:v>
+        <x:v>4337</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8750</x:v>
+        <x:v>8758</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>841</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1629</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1957</x:v>
+        <x:v>1987</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>2400</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4357</x:v>
+        <x:v>4387</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>4581</x:v>
+        <x:v>5064</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4470</x:v>
+        <x:v>4951</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>9051</x:v>
+        <x:v>10015</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5336</x:v>
+        <x:v>5941</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5094</x:v>
+        <x:v>5627</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>10430</x:v>
+        <x:v>11568</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>4783</x:v>
+        <x:v>5352</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2192</x:v>
+        <x:v>2462</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6975</x:v>
+        <x:v>7814</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3376</x:v>
+        <x:v>3709</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4233</x:v>
+        <x:v>4704</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7609</x:v>
+        <x:v>8413</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>10852</x:v>
+        <x:v>12020</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7406</x:v>
+        <x:v>8185</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>18258</x:v>
+        <x:v>20205</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2301</x:v>
+        <x:v>2513</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>2777</x:v>
+        <x:v>3102</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5078</x:v>
+        <x:v>5615</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1997</x:v>
+        <x:v>2226</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1924</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3715</x:v>
+        <x:v>4150</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4421</x:v>
+        <x:v>4819</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4337</x:v>
+        <x:v>4759</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>8758</x:v>
+        <x:v>9578</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>788</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1629</x:v>
+        <x:v>1777</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>1987</x:v>
+        <x:v>2216</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2400</x:v>
+        <x:v>2619</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4387</x:v>
+        <x:v>4835</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>5064</x:v>
+        <x:v>5095</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4951</x:v>
+        <x:v>4967</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>10015</x:v>
+        <x:v>10062</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5941</x:v>
+        <x:v>5950</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5627</x:v>
+        <x:v>5631</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>11568</x:v>
+        <x:v>11581</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5352</x:v>
+        <x:v>5355</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2462</x:v>
+        <x:v>2463</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7814</x:v>
+        <x:v>7818</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3709</x:v>
+        <x:v>3712</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4704</x:v>
+        <x:v>4711</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8413</x:v>
+        <x:v>8423</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>12020</x:v>
+        <x:v>12033</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8185</x:v>
+        <x:v>8195</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>20205</x:v>
+        <x:v>20228</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2513</x:v>
+        <x:v>2527</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3102</x:v>
+        <x:v>3107</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5615</x:v>
+        <x:v>5634</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2226</x:v>
+        <x:v>2227</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1924</x:v>
+        <x:v>1925</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4150</x:v>
+        <x:v>4152</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4819</x:v>
+        <x:v>4820</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4759</x:v>
+        <x:v>4763</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>9578</x:v>
+        <x:v>9583</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>862</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1777</x:v>
+        <x:v>1781</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>2216</x:v>
+        <x:v>2245</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2619</x:v>
+        <x:v>2622</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4835</x:v>
+        <x:v>4867</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>5095</x:v>
+        <x:v>5111</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4967</x:v>
+        <x:v>4977</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>10062</x:v>
+        <x:v>10088</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5950</x:v>
+        <x:v>5965</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5631</x:v>
+        <x:v>5646</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>11581</x:v>
+        <x:v>11611</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5355</x:v>
+        <x:v>5359</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2463</x:v>
+        <x:v>2467</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7818</x:v>
+        <x:v>7826</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3712</x:v>
+        <x:v>3716</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4711</x:v>
+        <x:v>4718</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8423</x:v>
+        <x:v>8434</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>12033</x:v>
+        <x:v>12102</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8195</x:v>
+        <x:v>8224</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>20228</x:v>
+        <x:v>20326</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2544</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3107</x:v>
+        <x:v>3117</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5634</x:v>
+        <x:v>5661</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2227</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1925</x:v>
+        <x:v>1926</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4152</x:v>
+        <x:v>4153</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4820</x:v>
+        <x:v>4826</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4763</x:v>
+        <x:v>4774</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>9583</x:v>
+        <x:v>9600</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>864</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>917</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1781</x:v>
+        <x:v>1782</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>2245</x:v>
+        <x:v>2251</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2622</x:v>
+        <x:v>2623</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4867</x:v>
+        <x:v>4874</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>5111</x:v>
+        <x:v>5116</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4977</x:v>
+        <x:v>4986</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>10088</x:v>
+        <x:v>10102</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5965</x:v>
+        <x:v>5978</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5646</x:v>
+        <x:v>5650</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>11611</x:v>
+        <x:v>11628</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5359</x:v>
+        <x:v>5360</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2467</x:v>
+        <x:v>2466</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>7826</x:v>
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3716</x:v>
+        <x:v>3718</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4718</x:v>
+        <x:v>4719</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8434</x:v>
+        <x:v>8437</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>12102</x:v>
+        <x:v>12127</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8224</x:v>
+        <x:v>8240</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>20326</x:v>
+        <x:v>20367</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2544</x:v>
+        <x:v>2545</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3117</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5661</x:v>
+        <x:v>5662</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2227</x:v>
+        <x:v>2228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1926</x:v>
+        <x:v>1927</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4153</x:v>
+        <x:v>4155</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>4826</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4774</x:v>
+        <x:v>4776</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>9600</x:v>
+        <x:v>9602</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>2251</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2623</x:v>
+        <x:v>2624</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4874</x:v>
+        <x:v>4875</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>5116</x:v>
+        <x:v>5121</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4986</x:v>
+        <x:v>4989</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>10102</x:v>
+        <x:v>10110</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,10 +449,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5978</x:v>
+        <x:v>5977</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5650</x:v>
+        <x:v>5651</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>11628</x:v>
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5360</x:v>
+        <x:v>5361</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2466</x:v>
+        <x:v>2465</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>7826</x:v>
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3718</x:v>
+        <x:v>3722</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4719</x:v>
+        <x:v>4721</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8437</x:v>
+        <x:v>8443</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>12127</x:v>
+        <x:v>12134</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8240</x:v>
+        <x:v>8255</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>20367</x:v>
+        <x:v>20389</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2545</x:v>
+        <x:v>2548</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3117</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5662</x:v>
+        <x:v>5665</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2228</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1927</x:v>
+        <x:v>1928</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4155</x:v>
+        <x:v>4156</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4826</x:v>
+        <x:v>4828</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4776</x:v>
+        <x:v>4782</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>9602</x:v>
+        <x:v>9610</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>865</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>917</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1782</x:v>
+        <x:v>1784</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>2251</x:v>
+        <x:v>2262</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2624</x:v>
+        <x:v>2629</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4875</x:v>
+        <x:v>4891</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>5121</x:v>
+        <x:v>5128</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4989</x:v>
+        <x:v>4990</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>10110</x:v>
+        <x:v>10118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5977</x:v>
+        <x:v>5979</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5651</x:v>
+        <x:v>5657</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>11628</x:v>
+        <x:v>11636</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5361</x:v>
+        <x:v>5357</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2465</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7826</x:v>
+        <x:v>7822</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3722</x:v>
+        <x:v>3725</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4721</x:v>
+        <x:v>4732</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8443</x:v>
+        <x:v>8457</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>12134</x:v>
+        <x:v>12170</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8255</x:v>
+        <x:v>8288</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>20389</x:v>
+        <x:v>20458</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2548</x:v>
+        <x:v>2552</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3117</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5665</x:v>
+        <x:v>5669</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2228</x:v>
+        <x:v>2254</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1928</x:v>
+        <x:v>1931</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4156</x:v>
+        <x:v>4185</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4828</x:v>
+        <x:v>4866</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4782</x:v>
+        <x:v>4821</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>9610</x:v>
+        <x:v>9687</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>867</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1784</x:v>
+        <x:v>1785</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>2262</x:v>
+        <x:v>2280</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2629</x:v>
+        <x:v>2654</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4891</x:v>
+        <x:v>4934</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>5128</x:v>
+        <x:v>5567</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4990</x:v>
+        <x:v>5437</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>10118</x:v>
+        <x:v>11004</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>5979</x:v>
+        <x:v>6489</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5657</x:v>
+        <x:v>6138</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>11636</x:v>
+        <x:v>12627</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5357</x:v>
+        <x:v>5886</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2465</x:v>
+        <x:v>2714</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7822</x:v>
+        <x:v>8600</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>3725</x:v>
+        <x:v>4044</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4732</x:v>
+        <x:v>5164</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8457</x:v>
+        <x:v>9208</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>12170</x:v>
+        <x:v>13237</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8288</x:v>
+        <x:v>8962</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>20458</x:v>
+        <x:v>22199</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>2552</x:v>
+        <x:v>2754</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3117</x:v>
+        <x:v>3388</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>5669</x:v>
+        <x:v>6142</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2254</x:v>
+        <x:v>2468</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1931</x:v>
+        <x:v>2093</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4185</x:v>
+        <x:v>4561</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>4866</x:v>
+        <x:v>5141</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>4821</x:v>
+        <x:v>5132</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>9687</x:v>
+        <x:v>10273</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1950</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>2280</x:v>
+        <x:v>2449</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2654</x:v>
+        <x:v>2888</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4934</x:v>
+        <x:v>5337</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Arrests by Judicial Districts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Arrests by Judicial Districts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Judicial District</x:t>
   </x:si>
@@ -26,6 +26,123 @@
   </x:si>
   <x:si>
     <x:t>Grand Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5457</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +151,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -84,13 +201,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -99,7 +216,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -107,7 +224,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -431,143 +548,143 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="n">
-        <x:v>5567</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>5437</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>11004</x:v>
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="n">
-        <x:v>6489</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>6138</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>12627</x:v>
+      <x:c r="D3" s="1" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="n">
-        <x:v>5886</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>2714</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>8600</x:v>
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="n">
-        <x:v>4044</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>5164</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>9208</x:v>
+      <x:c r="A5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="n">
-        <x:v>13237</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>8962</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>22199</x:v>
+      <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="n">
-        <x:v>2754</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>3388</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>6142</x:v>
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="n">
-        <x:v>2468</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>2093</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>4561</x:v>
+      <x:c r="A8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="n">
-        <x:v>5141</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>5132</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>10273</x:v>
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="n">
-        <x:v>932</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>1018</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>1950</x:v>
+      <x:c r="A10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="n">
-        <x:v>2449</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>2888</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>5337</x:v>
+      <x:c r="A11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,61 +31,61 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>5629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11104</x:t>
+    <x:t>5658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11136</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>6542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12725</x:t>
+    <x:t>6545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12731</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>5896</x:t>
+    <x:t>5897</x:t>
   </x:si>
   <x:si>
     <x:t>2735</x:t>
   </x:si>
   <x:si>
-    <x:t>8631</x:t>
+    <x:t>8632</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9265</x:t>
+    <x:t>4075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9270</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22425</x:t>
+    <x:t>13393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22456</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -115,22 +115,19 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10383</x:t>
+    <x:t>10390</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1974</x:t>
+    <x:t>948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1980</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
@@ -139,10 +136,10 @@
     <x:t>2506</x:t>
   </x:si>
   <x:si>
-    <x:t>2951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5457</x:t>
+    <x:t>2959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5465</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -650,41 +647,41 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
+      <x:c r="C10" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="s">
+      <x:c r="D10" s="1" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="C11" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="D11" s="1" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,115 +31,118 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>5658</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11136</x:t>
+    <x:t>5675</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11161</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>6545</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12731</x:t>
+    <x:t>6559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12753</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>5897</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8632</x:t>
+    <x:t>5900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8636</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9270</x:t>
+    <x:t>4084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9286</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22456</x:t>
+    <x:t>13405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22475</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6174</x:t>
+    <x:t>2773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6183</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4589</x:t>
+    <x:t>2483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4601</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>10390</x:t>
+    <x:t>5203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10405</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1980</x:t>
+    <x:t>949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1984</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2959</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5465</x:t>
+    <x:t>2527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5500</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -650,38 +653,38 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>5675</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5486</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11161</x:t>
+    <x:t>5677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11194</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>6559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12753</x:t>
+    <x:t>6561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12754</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,25 +67,25 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4084</x:t>
+    <x:t>4086</x:t>
   </x:si>
   <x:si>
     <x:t>5202</x:t>
   </x:si>
   <x:si>
-    <x:t>9286</x:t>
+    <x:t>9288</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13405</x:t>
+    <x:t>13406</x:t>
   </x:si>
   <x:si>
     <x:t>9070</x:t>
   </x:si>
   <x:si>
-    <x:t>22475</x:t>
+    <x:t>22476</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -106,40 +106,43 @@
     <x:t>2483</x:t>
   </x:si>
   <x:si>
-    <x:t>2118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4601</x:t>
+    <x:t>2119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4602</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10405</x:t>
+    <x:t>5210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10426</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>949</x:t>
+    <x:t>950</x:t>
   </x:si>
   <x:si>
     <x:t>1035</x:t>
   </x:si>
   <x:si>
-    <x:t>1984</x:t>
+    <x:t>1985</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2973</x:t>
+    <x:t>2524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2976</x:t>
   </x:si>
   <x:si>
     <x:t>5500</x:t>
@@ -650,41 +653,41 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,37 +31,37 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>5677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11194</x:t>
+    <x:t>5678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11196</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>6561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12754</x:t>
+    <x:t>6562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12756</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>5900</x:t>
+    <x:t>5899</x:t>
   </x:si>
   <x:si>
     <x:t>2736</x:t>
   </x:si>
   <x:si>
-    <x:t>8636</x:t>
+    <x:t>8635</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -70,34 +70,34 @@
     <x:t>4086</x:t>
   </x:si>
   <x:si>
-    <x:t>5202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9288</x:t>
+    <x:t>5205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9291</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22476</x:t>
+    <x:t>13407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22479</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2773</x:t>
+    <x:t>2774</x:t>
   </x:si>
   <x:si>
     <x:t>3410</x:t>
   </x:si>
   <x:si>
-    <x:t>6183</x:t>
+    <x:t>6184</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,37 +115,37 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10426</x:t>
+    <x:t>5212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10429</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>950</x:t>
+    <x:t>952</x:t>
   </x:si>
   <x:si>
     <x:t>1035</x:t>
   </x:si>
   <x:si>
-    <x:t>1985</x:t>
+    <x:t>1987</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5500</x:t>
+    <x:t>2534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5512</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,121 +31,121 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>5678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11196</x:t>
+    <x:t>6138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12073</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>6562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12756</x:t>
+    <x:t>7134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13812</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>5899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8635</x:t>
+    <x:t>6492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9495</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9291</x:t>
+    <x:t>4410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10081</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22479</x:t>
+    <x:t>14400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24129</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6184</x:t>
+    <x:t>2970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6625</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4602</x:t>
+    <x:t>2683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4963</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10429</x:t>
+    <x:t>5557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11052</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1987</x:t>
+    <x:t>1023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2122</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2978</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5512</x:t>
+    <x:t>2716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5911</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12073</x:t>
+    <x:t>6140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5937</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12077</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13812</x:t>
+    <x:t>7138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13818</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,61 +67,61 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5671</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10081</x:t>
+    <x:t>4411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10089</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24129</x:t>
+    <x:t>14420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24165</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3655</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6625</x:t>
+    <x:t>2977</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6647</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2683</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4963</x:t>
+    <x:t>2684</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4965</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11052</x:t>
+    <x:t>5556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11053</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -142,10 +142,10 @@
     <x:t>2716</x:t>
   </x:si>
   <x:si>
-    <x:t>3195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5911</x:t>
+    <x:t>3202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5918</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -34,10 +34,10 @@
     <x:t>6140</x:t>
   </x:si>
   <x:si>
-    <x:t>5937</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12077</x:t>
+    <x:t>5939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12079</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,34 +31,34 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12079</x:t>
+    <x:t>6150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12097</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13818</x:t>
+    <x:t>7154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13840</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3003</x:t>
+    <x:t>6491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3004</x:t>
   </x:si>
   <x:si>
     <x:t>9495</x:t>
@@ -67,37 +67,37 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10089</x:t>
+    <x:t>4417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10103</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24165</x:t>
+    <x:t>14443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24197</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2977</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6647</x:t>
+    <x:t>2979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6655</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -106,10 +106,10 @@
     <x:t>2684</x:t>
   </x:si>
   <x:si>
-    <x:t>2281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4965</x:t>
+    <x:t>2283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4967</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
@@ -127,25 +127,25 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>1023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2122</x:t>
+    <x:t>1027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2130</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5918</x:t>
+    <x:t>2760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6019</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,34 +31,34 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12097</x:t>
+    <x:t>6155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12110</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13840</x:t>
+    <x:t>7160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13848</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3004</x:t>
+    <x:t>6493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3002</x:t>
   </x:si>
   <x:si>
     <x:t>9495</x:t>
@@ -67,49 +67,49 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10103</x:t>
+    <x:t>4419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10106</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24197</x:t>
+    <x:t>14445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24201</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2979</x:t>
+    <x:t>2980</x:t>
   </x:si>
   <x:si>
     <x:t>3676</x:t>
   </x:si>
   <x:si>
-    <x:t>6655</x:t>
+    <x:t>6656</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2684</x:t>
+    <x:t>2689</x:t>
   </x:si>
   <x:si>
     <x:t>2283</x:t>
   </x:si>
   <x:si>
-    <x:t>4967</x:t>
+    <x:t>4972</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
@@ -118,10 +118,10 @@
     <x:t>5556</x:t>
   </x:si>
   <x:si>
-    <x:t>5497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11053</x:t>
+    <x:t>5505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11061</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6019</x:t>
+    <x:t>2761</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6021</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,73 +31,73 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12110</x:t>
+    <x:t>6158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5958</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12116</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13848</x:t>
+    <x:t>7167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6691</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13858</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6493</x:t>
+    <x:t>6496</x:t>
   </x:si>
   <x:si>
     <x:t>3002</x:t>
   </x:si>
   <x:si>
-    <x:t>9495</x:t>
+    <x:t>9498</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10106</x:t>
+    <x:t>4423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10115</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24201</x:t>
+    <x:t>14454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9764</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24218</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3676</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6656</x:t>
+    <x:t>2985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6662</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6021</x:t>
+    <x:t>2769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6031</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,121 +31,121 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5958</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12116</x:t>
+    <x:t>6179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12149</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13858</x:t>
+    <x:t>7174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13872</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6496</x:t>
+    <x:t>6497</x:t>
   </x:si>
   <x:si>
     <x:t>3002</x:t>
   </x:si>
   <x:si>
-    <x:t>9498</x:t>
+    <x:t>9499</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5692</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10115</x:t>
+    <x:t>4427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10120</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9764</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24218</x:t>
+    <x:t>14470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24247</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6662</x:t>
+    <x:t>2989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6671</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2689</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4972</x:t>
+    <x:t>2697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4994</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11061</x:t>
+    <x:t>5560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11066</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>1027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2130</x:t>
+    <x:t>1036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2140</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6031</x:t>
+    <x:t>2772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6035</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -34,22 +34,22 @@
     <x:t>6179</x:t>
   </x:si>
   <x:si>
-    <x:t>5970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12149</x:t>
+    <x:t>5971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12150</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6698</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13872</x:t>
+    <x:t>7175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13875</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,37 +67,37 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4427</x:t>
+    <x:t>4435</x:t>
   </x:si>
   <x:si>
     <x:t>5693</x:t>
   </x:si>
   <x:si>
-    <x:t>10120</x:t>
+    <x:t>10128</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24247</x:t>
+    <x:t>14481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24262</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6671</x:t>
+    <x:t>2990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6673</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -118,10 +118,10 @@
     <x:t>5560</x:t>
   </x:si>
   <x:si>
-    <x:t>5506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11066</x:t>
+    <x:t>5512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11072</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6035</x:t>
+    <x:t>2774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6044</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12150</x:t>
+    <x:t>6189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12180</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13875</x:t>
+    <x:t>7176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13878</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,46 +67,46 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4435</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5693</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10128</x:t>
+    <x:t>4439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10134</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9781</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24262</x:t>
+    <x:t>14490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24274</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3683</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6673</x:t>
+    <x:t>2997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6682</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2697</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2297</x:t>
+    <x:t>2696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2298</x:t>
   </x:si>
   <x:si>
     <x:t>4994</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5560</x:t>
+    <x:t>5562</x:t>
   </x:si>
   <x:si>
     <x:t>5512</x:t>
   </x:si>
   <x:si>
-    <x:t>11072</x:t>
+    <x:t>11074</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6044</x:t>
+    <x:t>2782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6057</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,61 +31,61 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12180</x:t>
+    <x:t>6194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12184</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13878</x:t>
+    <x:t>7199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13907</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9499</x:t>
+    <x:t>6501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9504</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5695</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10134</x:t>
+    <x:t>4442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10138</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24274</x:t>
+    <x:t>14494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24281</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -103,25 +103,25 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4994</x:t>
+    <x:t>2695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4995</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11074</x:t>
+    <x:t>5564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11078</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2782</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6057</x:t>
+    <x:t>2791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6069</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12184</x:t>
+    <x:t>6216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12286</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -55,37 +55,37 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9504</x:t>
+    <x:t>6504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9506</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10138</x:t>
+    <x:t>4445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10144</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14494</x:t>
+    <x:t>14493</x:t>
   </x:si>
   <x:si>
     <x:t>9787</x:t>
   </x:si>
   <x:si>
-    <x:t>24281</x:t>
+    <x:t>24280</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -115,37 +115,37 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11078</x:t>
+    <x:t>5590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11112</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>1036</x:t>
+    <x:t>1037</x:t>
   </x:si>
   <x:si>
     <x:t>1104</x:t>
   </x:si>
   <x:si>
-    <x:t>2140</x:t>
+    <x:t>2141</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2791</x:t>
+    <x:t>2790</x:t>
   </x:si>
   <x:si>
     <x:t>3278</x:t>
   </x:si>
   <x:si>
-    <x:t>6069</x:t>
+    <x:t>6068</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12286</x:t>
+    <x:t>6241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12395</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13907</x:t>
+    <x:t>7205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13917</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,85 +67,85 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4445</x:t>
+    <x:t>4446</x:t>
   </x:si>
   <x:si>
     <x:t>5699</x:t>
   </x:si>
   <x:si>
-    <x:t>10144</x:t>
+    <x:t>10145</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24280</x:t>
+    <x:t>14505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24298</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6682</x:t>
+    <x:t>2996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6683</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2695</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4995</x:t>
+    <x:t>2703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5008</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11112</x:t>
+    <x:t>5611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11163</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>1037</x:t>
+    <x:t>1045</x:t>
   </x:si>
   <x:si>
     <x:t>1104</x:t>
   </x:si>
   <x:si>
-    <x:t>2141</x:t>
+    <x:t>2149</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6068</x:t>
+    <x:t>2794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6074</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,73 +31,73 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12395</x:t>
+    <x:t>6248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12408</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13917</x:t>
+    <x:t>7207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13920</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9506</x:t>
+    <x:t>6517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9520</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4446</x:t>
+    <x:t>4448</x:t>
   </x:si>
   <x:si>
     <x:t>5699</x:t>
   </x:si>
   <x:si>
-    <x:t>10145</x:t>
+    <x:t>10147</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24298</x:t>
+    <x:t>14515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24315</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6683</x:t>
+    <x:t>2997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6685</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5611</x:t>
+    <x:t>5613</x:t>
   </x:si>
   <x:si>
     <x:t>5552</x:t>
   </x:si>
   <x:si>
-    <x:t>11163</x:t>
+    <x:t>11165</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6074</x:t>
+    <x:t>2795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6079</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12408</x:t>
+    <x:t>6250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12414</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7207</x:t>
+    <x:t>7209</x:t>
   </x:si>
   <x:si>
     <x:t>6713</x:t>
   </x:si>
   <x:si>
-    <x:t>13920</x:t>
+    <x:t>13922</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -70,34 +70,34 @@
     <x:t>4448</x:t>
   </x:si>
   <x:si>
-    <x:t>5699</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10147</x:t>
+    <x:t>5702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10150</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14515</x:t>
+    <x:t>14518</x:t>
   </x:si>
   <x:si>
     <x:t>9800</x:t>
   </x:si>
   <x:si>
-    <x:t>24315</x:t>
+    <x:t>24318</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>2997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6685</x:t>
+    <x:t>3012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6702</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5613</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11165</x:t>
+    <x:t>5617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11171</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6079</x:t>
+    <x:t>2802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6087</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,61 +31,61 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12414</x:t>
+    <x:t>6254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12424</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13922</x:t>
+    <x:t>7210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13925</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6517</x:t>
+    <x:t>6519</x:t>
   </x:si>
   <x:si>
     <x:t>3003</x:t>
   </x:si>
   <x:si>
-    <x:t>9520</x:t>
+    <x:t>9522</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10150</x:t>
+    <x:t>4451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10151</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24318</x:t>
+    <x:t>14524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24327</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11171</x:t>
+    <x:t>5618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11176</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2802</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6087</x:t>
+    <x:t>2803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6093</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12424</x:t>
+    <x:t>6255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12429</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -55,46 +55,46 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6519</x:t>
+    <x:t>6521</x:t>
   </x:si>
   <x:si>
     <x:t>3003</x:t>
   </x:si>
   <x:si>
-    <x:t>9522</x:t>
+    <x:t>9524</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4451</x:t>
+    <x:t>4453</x:t>
   </x:si>
   <x:si>
     <x:t>5700</x:t>
   </x:si>
   <x:si>
-    <x:t>10151</x:t>
+    <x:t>10153</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9803</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24327</x:t>
+    <x:t>14533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24338</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3690</x:t>
+    <x:t>3011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3691</x:t>
   </x:si>
   <x:si>
     <x:t>6702</x:t>
@@ -103,13 +103,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2703</x:t>
+    <x:t>2704</x:t>
   </x:si>
   <x:si>
     <x:t>2305</x:t>
   </x:si>
   <x:si>
-    <x:t>5008</x:t>
+    <x:t>5009</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
@@ -118,10 +118,10 @@
     <x:t>5618</x:t>
   </x:si>
   <x:si>
-    <x:t>5558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11176</x:t>
+    <x:t>5559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11177</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -142,10 +142,10 @@
     <x:t>2803</x:t>
   </x:si>
   <x:si>
-    <x:t>3290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6093</x:t>
+    <x:t>3291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6094</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,10 +31,10 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6174</x:t>
+    <x:t>6252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6177</x:t>
   </x:si>
   <x:si>
     <x:t>12429</x:t>
@@ -43,63 +43,63 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7210</x:t>
+    <x:t>7211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3695</x:t>
   </x:si>
   <x:si>
     <x:t>6715</x:t>
   </x:si>
   <x:si>
-    <x:t>13925</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6702</x:t>
-  </x:si>
-  <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5618</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11177</x:t>
+    <x:t>5624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11185</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2803</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6094</x:t>
+    <x:t>2812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6115</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,73 +31,73 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12429</x:t>
+    <x:t>6254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12433</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13930</x:t>
+    <x:t>7218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13943</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6519</x:t>
+    <x:t>6518</x:t>
   </x:si>
   <x:si>
     <x:t>3003</x:t>
   </x:si>
   <x:si>
-    <x:t>9522</x:t>
+    <x:t>9521</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4457</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10157</x:t>
+    <x:t>4461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10162</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24359</x:t>
+    <x:t>14547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24361</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3695</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6715</x:t>
+    <x:t>3024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6721</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -127,13 +127,13 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>1045</x:t>
+    <x:t>1046</x:t>
   </x:si>
   <x:si>
     <x:t>1104</x:t>
   </x:si>
   <x:si>
-    <x:t>2149</x:t>
+    <x:t>2150</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12433</x:t>
+    <x:t>6261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12444</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13943</x:t>
+    <x:t>7219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13945</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,37 +67,37 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>4461</x:t>
+    <x:t>4463</x:t>
   </x:si>
   <x:si>
     <x:t>5701</x:t>
   </x:si>
   <x:si>
-    <x:t>10162</x:t>
+    <x:t>10164</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24361</x:t>
+    <x:t>14551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24369</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3697</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6721</x:t>
+    <x:t>3029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6733</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11185</x:t>
+    <x:t>5649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11215</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2812</x:t>
+    <x:t>2815</x:t>
   </x:si>
   <x:si>
     <x:t>3303</x:t>
   </x:si>
   <x:si>
-    <x:t>6115</x:t>
+    <x:t>6118</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2024.xlsx
@@ -31,34 +31,34 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12444</x:t>
+    <x:t>6262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12446</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>7219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13945</x:t>
+    <x:t>7217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13944</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>6518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3003</x:t>
+    <x:t>6517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3004</x:t>
   </x:si>
   <x:si>
     <x:t>9521</x:t>
@@ -70,58 +70,58 @@
     <x:t>4463</x:t>
   </x:si>
   <x:si>
-    <x:t>5701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10164</x:t>
+    <x:t>5702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10165</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14551</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9818</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24369</x:t>
+    <x:t>14560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24379</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3029</x:t>
+    <x:t>3030</x:t>
   </x:si>
   <x:si>
     <x:t>3704</x:t>
   </x:si>
   <x:si>
-    <x:t>6733</x:t>
+    <x:t>6734</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2704</x:t>
+    <x:t>2705</x:t>
   </x:si>
   <x:si>
     <x:t>2305</x:t>
   </x:si>
   <x:si>
-    <x:t>5009</x:t>
+    <x:t>5010</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5566</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11215</x:t>
+    <x:t>5650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11218</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>2815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6118</x:t>
+    <x:t>2816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6122</x:t>
   </x:si>
 </x:sst>
 </file>
